--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.746959333333333</v>
+        <v>17.31937166666667</v>
       </c>
       <c r="H2">
-        <v>29.240878</v>
+        <v>51.958115</v>
       </c>
       <c r="I2">
-        <v>0.9648778190852316</v>
+        <v>0.9799257492601914</v>
       </c>
       <c r="J2">
-        <v>0.9648778190852315</v>
+        <v>0.9799257492601915</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.66267766666667</v>
+        <v>5.857771333333333</v>
       </c>
       <c r="N2">
-        <v>37.988033</v>
+        <v>17.573314</v>
       </c>
       <c r="O2">
-        <v>0.8505858800358791</v>
+        <v>0.7247832978729415</v>
       </c>
       <c r="P2">
-        <v>0.8505858800358792</v>
+        <v>0.7247832978729416</v>
       </c>
       <c r="Q2">
-        <v>123.4226042681082</v>
+        <v>101.4529188603455</v>
       </c>
       <c r="R2">
-        <v>1110.803438412974</v>
+        <v>913.0762697431099</v>
       </c>
       <c r="S2">
-        <v>0.8207114488737115</v>
+        <v>0.7102338162194146</v>
       </c>
       <c r="T2">
-        <v>0.8207114488737115</v>
+        <v>0.7102338162194148</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.746959333333333</v>
+        <v>17.31937166666667</v>
       </c>
       <c r="H3">
-        <v>29.240878</v>
+        <v>51.958115</v>
       </c>
       <c r="I3">
-        <v>0.9648778190852316</v>
+        <v>0.9799257492601914</v>
       </c>
       <c r="J3">
-        <v>0.9648778190852315</v>
+        <v>0.9799257492601915</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.803949999999999</v>
       </c>
       <c r="O3">
-        <v>0.08517382719875183</v>
+        <v>0.1568878485835839</v>
       </c>
       <c r="P3">
-        <v>0.08517382719875183</v>
+        <v>0.1568878485835839</v>
       </c>
       <c r="Q3">
-        <v>12.35898198534444</v>
+        <v>21.96067461713888</v>
       </c>
       <c r="R3">
-        <v>111.2308378681</v>
+        <v>197.64607155425</v>
       </c>
       <c r="S3">
-        <v>0.08218233663067405</v>
+        <v>0.1537384425730879</v>
       </c>
       <c r="T3">
-        <v>0.08218233663067404</v>
+        <v>0.1537384425730879</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.746959333333333</v>
+        <v>17.31937166666667</v>
       </c>
       <c r="H4">
-        <v>29.240878</v>
+        <v>51.958115</v>
       </c>
       <c r="I4">
-        <v>0.9648778190852316</v>
+        <v>0.9799257492601914</v>
       </c>
       <c r="J4">
-        <v>0.9648778190852315</v>
+        <v>0.9799257492601915</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.869037</v>
       </c>
       <c r="O4">
-        <v>0.06424029276536898</v>
+        <v>0.1183288535434745</v>
       </c>
       <c r="P4">
-        <v>0.06424029276536898</v>
+        <v>0.1183288535434745</v>
       </c>
       <c r="Q4">
-        <v>9.321462321609554</v>
+        <v>16.56330604280611</v>
       </c>
       <c r="R4">
-        <v>83.89316089448599</v>
+        <v>149.069754385255</v>
       </c>
       <c r="S4">
-        <v>0.061984033580846</v>
+        <v>0.1159534904676887</v>
       </c>
       <c r="T4">
-        <v>0.061984033580846</v>
+        <v>0.1159534904676887</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.512538</v>
       </c>
       <c r="I5">
-        <v>0.01691250678718698</v>
+        <v>0.009666424266436919</v>
       </c>
       <c r="J5">
-        <v>0.01691250678718698</v>
+        <v>0.009666424266436919</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.66267766666667</v>
+        <v>5.857771333333333</v>
       </c>
       <c r="N5">
-        <v>37.988033</v>
+        <v>17.573314</v>
       </c>
       <c r="O5">
-        <v>0.8505858800358791</v>
+        <v>0.7247832978729415</v>
       </c>
       <c r="P5">
-        <v>0.8505858800358792</v>
+        <v>0.7247832978729416</v>
       </c>
       <c r="Q5">
-        <v>2.163367828639334</v>
+        <v>1.000776801214667</v>
       </c>
       <c r="R5">
-        <v>19.470310457754</v>
+        <v>9.006991210932</v>
       </c>
       <c r="S5">
-        <v>0.01438553946919222</v>
+        <v>0.00700606285846718</v>
       </c>
       <c r="T5">
-        <v>0.01438553946919222</v>
+        <v>0.007006062858467181</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.512538</v>
       </c>
       <c r="I6">
-        <v>0.01691250678718698</v>
+        <v>0.009666424266436919</v>
       </c>
       <c r="J6">
-        <v>0.01691250678718698</v>
+        <v>0.009666424266436919</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.803949999999999</v>
       </c>
       <c r="O6">
-        <v>0.08517382719875183</v>
+        <v>0.1568878485835839</v>
       </c>
       <c r="P6">
-        <v>0.08517382719875183</v>
+        <v>0.1568878485835839</v>
       </c>
       <c r="Q6">
         <v>0.2166298805666667</v>
@@ -818,10 +818,10 @@
         <v>1.9496689251</v>
       </c>
       <c r="S6">
-        <v>0.001440502930589581</v>
+        <v>0.001516544506657437</v>
       </c>
       <c r="T6">
-        <v>0.001440502930589581</v>
+        <v>0.001516544506657437</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.512538</v>
       </c>
       <c r="I7">
-        <v>0.01691250678718698</v>
+        <v>0.009666424266436919</v>
       </c>
       <c r="J7">
-        <v>0.01691250678718698</v>
+        <v>0.009666424266436919</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>2.869037</v>
       </c>
       <c r="O7">
-        <v>0.06424029276536898</v>
+        <v>0.1183288535434745</v>
       </c>
       <c r="P7">
-        <v>0.06424029276536898</v>
+        <v>0.1183288535434745</v>
       </c>
       <c r="Q7">
         <v>0.1633878317673333</v>
@@ -880,10 +880,10 @@
         <v>1.470490485906</v>
       </c>
       <c r="S7">
-        <v>0.001086464387405182</v>
+        <v>0.001143816901312302</v>
       </c>
       <c r="T7">
-        <v>0.001086464387405182</v>
+        <v>0.001143816901312302</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.551849</v>
       </c>
       <c r="I8">
-        <v>0.01820967412758146</v>
+        <v>0.01040782647337163</v>
       </c>
       <c r="J8">
-        <v>0.01820967412758146</v>
+        <v>0.01040782647337163</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.66267766666667</v>
+        <v>5.857771333333333</v>
       </c>
       <c r="N8">
-        <v>37.988033</v>
+        <v>17.573314</v>
       </c>
       <c r="O8">
-        <v>0.8505858800358791</v>
+        <v>0.7247832978729415</v>
       </c>
       <c r="P8">
-        <v>0.8505858800358792</v>
+        <v>0.7247832978729416</v>
       </c>
       <c r="Q8">
-        <v>2.329295335890778</v>
+        <v>1.077535084176222</v>
       </c>
       <c r="R8">
-        <v>20.963658023017</v>
+        <v>9.697815757586001</v>
       </c>
       <c r="S8">
-        <v>0.01548889169297546</v>
+        <v>0.007543418795059594</v>
       </c>
       <c r="T8">
-        <v>0.01548889169297546</v>
+        <v>0.007543418795059597</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.551849</v>
       </c>
       <c r="I9">
-        <v>0.01820967412758146</v>
+        <v>0.01040782647337163</v>
       </c>
       <c r="J9">
-        <v>0.01820967412758146</v>
+        <v>0.01040782647337163</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>3.803949999999999</v>
       </c>
       <c r="O9">
-        <v>0.08517382719875183</v>
+        <v>0.1568878485835839</v>
       </c>
       <c r="P9">
-        <v>0.08517382719875183</v>
+        <v>0.1568878485835839</v>
       </c>
       <c r="Q9">
         <v>0.2332451115055555</v>
@@ -1004,10 +1004,10 @@
         <v>2.09920600355</v>
       </c>
       <c r="S9">
-        <v>0.001550987637488206</v>
+        <v>0.001632861503838544</v>
       </c>
       <c r="T9">
-        <v>0.001550987637488206</v>
+        <v>0.001632861503838544</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.551849</v>
       </c>
       <c r="I10">
-        <v>0.01820967412758146</v>
+        <v>0.01040782647337163</v>
       </c>
       <c r="J10">
-        <v>0.01820967412758146</v>
+        <v>0.01040782647337163</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>2.869037</v>
       </c>
       <c r="O10">
-        <v>0.06424029276536898</v>
+        <v>0.1183288535434745</v>
       </c>
       <c r="P10">
-        <v>0.06424029276536898</v>
+        <v>0.1183288535434745</v>
       </c>
       <c r="Q10">
         <v>0.1759194666014444</v>
@@ -1066,10 +1066,10 @@
         <v>1.583275199413</v>
       </c>
       <c r="S10">
-        <v>0.001169794797117798</v>
+        <v>0.001231546174473488</v>
       </c>
       <c r="T10">
-        <v>0.001169794797117798</v>
+        <v>0.001231546174473488</v>
       </c>
     </row>
   </sheetData>
